--- a/TXeco_2021_vialListOrder.xlsx
+++ b/TXeco_2021_vialListOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/TX_ecolab_leafNitrogen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9AAB97F-EF92-7C44-B384-09706C438192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3C5C78-4F3F-D64A-8813-1AA12894A14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15680" yWindow="9140" windowWidth="37520" windowHeight="26680" xr2:uid="{8D2930C6-42A6-C149-9747-F26C7D0C837B}"/>
+    <workbookView xWindow="15180" yWindow="500" windowWidth="37520" windowHeight="26680" xr2:uid="{8D2930C6-42A6-C149-9747-F26C7D0C837B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>Brazos16_i_13</t>
   </si>
   <si>
-    <t>Brazos_16_i_06</t>
-  </si>
-  <si>
     <t>Brazos18_i_15</t>
   </si>
   <si>
@@ -778,9 +775,6 @@
     <t>Brazos16_i_11</t>
   </si>
   <si>
-    <t>Brazos18_04</t>
-  </si>
-  <si>
     <t>Brazos18_i_05</t>
   </si>
   <si>
@@ -937,7 +931,13 @@
     <t>Bandera_p_5a</t>
   </si>
   <si>
-    <t>Bandera_p_5a4_3</t>
+    <t>Brazos16_i_06</t>
+  </si>
+  <si>
+    <t>Brazos18_i_04</t>
+  </si>
+  <si>
+    <t>box_number</t>
   </si>
 </sst>
 </file>
@@ -1298,13 +1298,13 @@
   <dimension ref="A1:D293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1325,307 +1325,307 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1647,69 +1647,69 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1717,21 +1717,21 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1740,130 +1740,130 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -1871,27 +1871,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>297</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1899,27 +1899,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1941,27 +1941,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -1969,55 +1969,55 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -2025,55 +2025,55 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -2081,30 +2081,30 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2123,13 +2123,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -2146,18 +2146,18 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -2165,27 +2165,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -2193,41 +2193,41 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
@@ -2235,49 +2235,49 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -2286,40 +2286,40 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2328,166 +2328,166 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2496,32 +2496,32 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -2529,27 +2529,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -2557,13 +2557,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -2571,41 +2571,41 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -2627,55 +2627,55 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
@@ -2683,13 +2683,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -2706,102 +2706,102 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
         <v>5</v>
@@ -2823,69 +2823,69 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C111">
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112">
         <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>3</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
@@ -2893,38 +2893,38 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D117" t="s">
         <v>6</v>
@@ -2949,97 +2949,97 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -3047,69 +3047,69 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -3117,13 +3117,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
@@ -3131,27 +3131,27 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -3159,10 +3159,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C133">
         <v>6</v>
@@ -3173,41 +3173,41 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -3215,21 +3215,21 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -3243,41 +3243,41 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
@@ -3285,111 +3285,111 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B148">
         <v>3</v>
       </c>
       <c r="C148">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -3397,13 +3397,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -3411,209 +3411,209 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>4</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C155">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D165" t="s">
         <v>6</v>
@@ -3621,251 +3621,251 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C166">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C168">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D168" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C175">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="B176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C176">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="B178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="B179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="B180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="B181">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C181">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C182">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D183" t="s">
         <v>8</v>
@@ -3873,517 +3873,517 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C188">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C189">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B190">
         <v>4</v>
       </c>
       <c r="C190">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="B191">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="B192">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="B193">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C196">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C197">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="B198">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="B201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D203" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="B206">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B207">
         <v>5</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B208">
         <v>5</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B210">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B211">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B212">
         <v>5</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B213">
         <v>5</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B215">
         <v>5</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B216">
         <v>5</v>
       </c>
       <c r="C216">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="B217">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C217">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="B218">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C218">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D218" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="B219">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -4391,27 +4391,27 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B222">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -4419,52 +4419,52 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C223">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="B224">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C224">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C225">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="B226">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -4475,13 +4475,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="B227">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D227" t="s">
         <v>8</v>
@@ -4489,69 +4489,69 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B228">
         <v>5</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B230">
         <v>5</v>
       </c>
       <c r="C230">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C231">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C232">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D232" t="s">
         <v>8</v>
@@ -4559,27 +4559,27 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="B233">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="B234">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
@@ -4587,13 +4587,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="B235">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D235" t="s">
         <v>9</v>
@@ -4601,125 +4601,125 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="B236">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="B237">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C237">
         <v>5</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="B238">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C238">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="B239">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C239">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="B242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="B243">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C243">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>250</v>
+        <v>58</v>
       </c>
       <c r="B244">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D244" t="s">
         <v>10</v>
@@ -4727,41 +4727,41 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="B245">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C245">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="B246">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C246">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B247">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D247" t="s">
         <v>4</v>
@@ -4769,97 +4769,97 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="B248">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="B249">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="B250">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250">
         <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="B251">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="B252">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C252">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D252" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="B253">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D253" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="B254">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D254" t="s">
         <v>5</v>
@@ -4867,69 +4867,69 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C257">
         <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="B258">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C258">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>265</v>
+        <v>115</v>
       </c>
       <c r="B259">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C259">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D259" t="s">
         <v>5</v>
@@ -4937,27 +4937,27 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="B260">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C260">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="B261">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D261" t="s">
         <v>6</v>
@@ -4965,13 +4965,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c r="B262">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D262" t="s">
         <v>6</v>
@@ -4979,13 +4979,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="B263">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D263" t="s">
         <v>6</v>
@@ -4993,119 +4993,119 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="B264">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C265">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D265" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C266">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D266" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="B267">
         <v>6</v>
       </c>
       <c r="C267">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D267" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B268">
         <v>6</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="B269">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C271">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B272">
         <v>6</v>
@@ -5114,130 +5114,130 @@
         <v>5</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="B273">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C273">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B274">
         <v>6</v>
       </c>
       <c r="C274">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="B275">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="B276">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C276">
         <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B277">
         <v>6</v>
       </c>
       <c r="C277">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D277" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C278">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D278" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C279">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D279" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="B280">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C280">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D280" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B281">
         <v>6</v>
       </c>
       <c r="C281">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D281" t="s">
         <v>8</v>
@@ -5245,13 +5245,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="B282">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D282" t="s">
         <v>9</v>
@@ -5259,13 +5259,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="B283">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D283" t="s">
         <v>9</v>
@@ -5273,149 +5273,147 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>290</v>
+        <v>104</v>
       </c>
       <c r="B284">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D284" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B285">
         <v>6</v>
       </c>
       <c r="C285">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D285" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B286">
         <v>6</v>
       </c>
       <c r="C286">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B287">
         <v>6</v>
       </c>
       <c r="C287">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C288">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D289" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="B290">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D290" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B291">
         <v>6</v>
       </c>
       <c r="C291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D291" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B292">
         <v>6</v>
       </c>
       <c r="C292">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D292" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>299</v>
+        <v>87</v>
       </c>
       <c r="B293">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C293">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D293" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D296">
-    <sortCondition ref="B2:B296"/>
-    <sortCondition ref="D2:D296"/>
-    <sortCondition ref="C2:C296"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D293">
+    <sortCondition ref="A2:A293"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
